--- a/data/trans_orig/P33_2_2023-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P33_2_2023-Provincia-trans_orig.xlsx
@@ -560,13 +560,13 @@
         </is>
       </c>
       <c r="C4" s="5" t="n">
-        <v>7.219471570719923</v>
+        <v>7.219471570719925</v>
       </c>
       <c r="D4" s="5" t="n">
         <v>7.049292829725421</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>7.134755394259217</v>
+        <v>7.134755394259218</v>
       </c>
     </row>
     <row r="5">
@@ -577,13 +577,13 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>7.081154558536656</v>
+        <v>7.07941781589513</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>6.941395674653511</v>
+        <v>6.946657144572356</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>7.057547432700575</v>
+        <v>7.048738951330942</v>
       </c>
     </row>
     <row r="6">
@@ -594,13 +594,13 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>7.363459141323738</v>
+        <v>7.347838765240859</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>7.175649756991159</v>
+        <v>7.175935948843486</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>7.230648712242679</v>
+        <v>7.230523162924944</v>
       </c>
     </row>
     <row r="7">
@@ -621,7 +621,7 @@
         <v>7.601061788479227</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>7.628974936499958</v>
+        <v>7.62897493649996</v>
       </c>
     </row>
     <row r="8">
@@ -632,13 +632,13 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>7.524890832610294</v>
+        <v>7.51796899477851</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>7.48964101860763</v>
+        <v>7.502625709809841</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>7.539022427521932</v>
+        <v>7.546126244089727</v>
       </c>
     </row>
     <row r="9">
@@ -649,13 +649,13 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>7.801547524838465</v>
+        <v>7.809806551352686</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>7.700268332054179</v>
+        <v>7.715577594738449</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>7.725744863304142</v>
+        <v>7.717972347143811</v>
       </c>
     </row>
     <row r="10">
@@ -670,10 +670,10 @@
         </is>
       </c>
       <c r="C10" s="5" t="n">
-        <v>7.271620210315297</v>
+        <v>7.271620210315298</v>
       </c>
       <c r="D10" s="5" t="n">
-        <v>7.216252134091033</v>
+        <v>7.216252134091035</v>
       </c>
       <c r="E10" s="5" t="n">
         <v>7.242387786979477</v>
@@ -687,13 +687,13 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>7.146643728379127</v>
+        <v>7.134273980164482</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>7.113572033744837</v>
+        <v>7.098990731930217</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>7.152066733622368</v>
+        <v>7.148830278361719</v>
       </c>
     </row>
     <row r="12">
@@ -704,13 +704,13 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>7.413980128193801</v>
+        <v>7.395832060892251</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>7.341127184829566</v>
+        <v>7.331150305350521</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>7.321870535717886</v>
+        <v>7.327352442445314</v>
       </c>
     </row>
     <row r="13">
@@ -728,7 +728,7 @@
         <v>7.223282928176216</v>
       </c>
       <c r="D13" s="5" t="n">
-        <v>7.138462225573055</v>
+        <v>7.138462225573053</v>
       </c>
       <c r="E13" s="5" t="n">
         <v>7.179079127410537</v>
@@ -742,13 +742,13 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>7.044944230523853</v>
+        <v>7.06148122217359</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>6.998823009008347</v>
+        <v>6.994872678538078</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>7.068676451479507</v>
+        <v>7.063258714001322</v>
       </c>
     </row>
     <row r="15">
@@ -759,13 +759,13 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>7.382274222058304</v>
+        <v>7.384231930189868</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>7.282524120593762</v>
+        <v>7.282097650070153</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>7.298578007140418</v>
+        <v>7.297450653153399</v>
       </c>
     </row>
     <row r="16">
@@ -797,13 +797,13 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>6.832913870629227</v>
+        <v>6.837049862863719</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>6.636392435775063</v>
+        <v>6.640108726173432</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>6.75935874629049</v>
+        <v>6.756769626054626</v>
       </c>
     </row>
     <row r="18">
@@ -814,13 +814,13 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>7.06257756638662</v>
+        <v>7.063960788774735</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>6.814303054374633</v>
+        <v>6.817941794560057</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>6.905626380093446</v>
+        <v>6.905614079595845</v>
       </c>
     </row>
     <row r="19">
@@ -838,7 +838,7 @@
         <v>7.165415795708935</v>
       </c>
       <c r="D19" s="5" t="n">
-        <v>6.906835387377948</v>
+        <v>6.906835387377946</v>
       </c>
       <c r="E19" s="5" t="n">
         <v>7.037906195958299</v>
@@ -852,13 +852,13 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>7.037723466216501</v>
+        <v>7.030715667595905</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>6.786092082586364</v>
+        <v>6.787001943309015</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>6.95280650833016</v>
+        <v>6.950428455459921</v>
       </c>
     </row>
     <row r="21">
@@ -869,13 +869,13 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>7.321823479058677</v>
+        <v>7.306947304075516</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>7.024019452860522</v>
+        <v>7.029064924395319</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>7.137799969971391</v>
+        <v>7.129462121847871</v>
       </c>
     </row>
     <row r="22">
@@ -890,7 +890,7 @@
         </is>
       </c>
       <c r="C22" s="5" t="n">
-        <v>7.272390937199828</v>
+        <v>7.272390937199827</v>
       </c>
       <c r="D22" s="5" t="n">
         <v>7.172852623974232</v>
@@ -907,13 +907,13 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>7.162905356869923</v>
+        <v>7.170451733843956</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>7.066294084815414</v>
+        <v>7.077658202584395</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>7.145328913738078</v>
+        <v>7.15021210191468</v>
       </c>
     </row>
     <row r="24">
@@ -924,13 +924,13 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>7.398010049484653</v>
+        <v>7.386136823558091</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>7.274520680288388</v>
+        <v>7.275708590382362</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>7.298735060585512</v>
+        <v>7.291770677076509</v>
       </c>
     </row>
     <row r="25">
@@ -948,10 +948,10 @@
         <v>7.707463942723333</v>
       </c>
       <c r="D25" s="5" t="n">
-        <v>7.553678904414814</v>
+        <v>7.553678904414816</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>7.629090827884404</v>
+        <v>7.629090827884403</v>
       </c>
     </row>
     <row r="26">
@@ -962,13 +962,13 @@
         </is>
       </c>
       <c r="C26" s="5" t="n">
-        <v>7.64264907296788</v>
+        <v>7.636092771972861</v>
       </c>
       <c r="D26" s="5" t="n">
-        <v>7.490975293118328</v>
+        <v>7.488811469087245</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>7.58222786036958</v>
+        <v>7.582218413253329</v>
       </c>
     </row>
     <row r="27">
@@ -979,13 +979,13 @@
         </is>
       </c>
       <c r="C27" s="5" t="n">
-        <v>7.769513569848164</v>
+        <v>7.77055014334186</v>
       </c>
       <c r="D27" s="5" t="n">
-        <v>7.624402280406223</v>
+        <v>7.622663635411477</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>7.674759406727909</v>
+        <v>7.680224985223464</v>
       </c>
     </row>
     <row r="28">
@@ -1017,13 +1017,13 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>7.337598406916213</v>
+        <v>7.341291238961391</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>7.218789721243707</v>
+        <v>7.216885907777121</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>7.28753101966424</v>
+        <v>7.286301002268876</v>
       </c>
     </row>
     <row r="30">
@@ -1034,13 +1034,13 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>7.430677862132006</v>
+        <v>7.426649604740152</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>7.299776912567632</v>
+        <v>7.293277632111824</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>7.348131307935814</v>
+        <v>7.347672667390218</v>
       </c>
     </row>
     <row r="31">
